--- a/SGCM/13 MATRIZ DE PRUEBAS/Matiz Credito Simple - Perfil Verificador.xlsx
+++ b/SGCM/13 MATRIZ DE PRUEBAS/Matiz Credito Simple - Perfil Verificador.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="182">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -202,9 +202,6 @@
     <t>Abelino Olguín</t>
   </si>
   <si>
-    <t xml:space="preserve">Eliminación Correcta </t>
-  </si>
-  <si>
     <t>Jose Angel Pérez</t>
   </si>
   <si>
@@ -310,18 +307,9 @@
     <t xml:space="preserve">Información General </t>
   </si>
   <si>
-    <t xml:space="preserve">Condiciones Financieras </t>
-  </si>
-  <si>
-    <t>Resumen</t>
-  </si>
-  <si>
     <t xml:space="preserve">Muestra información del usuario en sesión. </t>
   </si>
   <si>
-    <t>Se visualiza la información correspondiente al usuario (delalle en el temaño de fuente) - "Solicitante Autorizado"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Apartado donde se agregan las condiciones financieras </t>
   </si>
   <si>
@@ -334,9 +322,6 @@
     <t>Comisiones / Tasa efectiva</t>
   </si>
   <si>
-    <t>Documentación</t>
-  </si>
-  <si>
     <t xml:space="preserve">Consulta de solicitudes </t>
   </si>
   <si>
@@ -346,9 +331,6 @@
     <t>Ver</t>
   </si>
   <si>
-    <t xml:space="preserve">Editar  </t>
-  </si>
-  <si>
     <t>Comentarios</t>
   </si>
   <si>
@@ -358,12 +340,6 @@
     <t xml:space="preserve">Permite cargar y arrastrar documentos </t>
   </si>
   <si>
-    <t xml:space="preserve">Documentación Eliminar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminar los documentos “no obligatorios” </t>
-  </si>
-  <si>
     <t xml:space="preserve">Permite visualizar el estado de la solicitud como datos capturados y faltantes por capturar </t>
   </si>
   <si>
@@ -379,9 +355,6 @@
     <t>Solicitar Modificación</t>
   </si>
   <si>
-    <t xml:space="preserve">Guardar Borrador </t>
-  </si>
-  <si>
     <t xml:space="preserve">Finalizar </t>
   </si>
   <si>
@@ -391,30 +364,18 @@
     <t>Selección al dar clic en el cuadro de check list</t>
   </si>
   <si>
-    <t xml:space="preserve">Selección Correcta </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancela el registro </t>
   </si>
   <si>
-    <t>Cancelación Correcta</t>
-  </si>
-  <si>
     <t xml:space="preserve">Asignar Mensaje de modificacíón </t>
   </si>
   <si>
-    <t xml:space="preserve">Guardar registros como Borrador </t>
-  </si>
-  <si>
     <t xml:space="preserve">Finaliza la solicitud se podrás ver visualizada en el apartado de  "Consulta de Solicitudes" </t>
   </si>
   <si>
     <t xml:space="preserve">Consulta de Solicitudes </t>
   </si>
   <si>
-    <t>Borrar</t>
-  </si>
-  <si>
     <t xml:space="preserve">Descargar   </t>
   </si>
   <si>
@@ -427,15 +388,9 @@
     <t xml:space="preserve">Envio de comentarios al usuario </t>
   </si>
   <si>
-    <t xml:space="preserve">Borrado de la solicitud </t>
-  </si>
-  <si>
     <t xml:space="preserve">Edita Registro de solicitud redireccionando al submenú Financiaminto y Oblicaciones </t>
   </si>
   <si>
-    <t xml:space="preserve">Descarga de Solicitud </t>
-  </si>
-  <si>
     <t>Ingresar sitio wed</t>
   </si>
   <si>
@@ -466,54 +421,6 @@
     <t xml:space="preserve">Ingresar a la aplicacción </t>
   </si>
   <si>
-    <t>1. SRPU-169  SRPU-170</t>
-  </si>
-  <si>
-    <t>SRPU-173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRPU-179 </t>
-  </si>
-  <si>
-    <t>SRPU-180</t>
-  </si>
-  <si>
-    <t>Botón Eliminar no tiene confirmación de borrado, Botón Agregar aparece del lago superior derecho de la pantalla
-Letras color azul
-sugerencia colocarlo en otra posición</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> La opción "BORRAR" solo se visualizara cuando este el archivo cargado?
-La opción "BORRAR" solo se visualizara cuando este el archivo cargado?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visualizacón correcta </t>
-  </si>
-  <si>
-    <t>Arroja Mensaje de error al darle clic en solicitar modificación Acento en la palabra modificación</t>
-  </si>
-  <si>
-    <t>SRPU-181  SRPU-182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No se visualizan las letras del botón confirmar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finaliza la solicitud y direcciona al apartado "Consulta de Solicitudes" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edición Correcta (Descripción del tooltip botón Editar)
-faltan letras aparece Edit / Editar
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borra solicitudes / Detalles mensaje de confirmación </t>
-  </si>
-  <si>
-    <t>SRPU-186</t>
-  </si>
-  <si>
     <t>En Curso</t>
   </si>
   <si>
@@ -529,37 +436,6 @@
     <t>(en blanco)</t>
   </si>
   <si>
-    <t xml:space="preserve"> Permite Agregar y Eliminar Registros (Detalles Acentos, Mensajes de confirmación,  no tiene rango en número de pago , clear y no options en ingles. Información General Tooltips descriptivos en 0pen / Close en las barras de despliegue cambiar a español Cerrar y Abrir / Información General campo "Destino" faltan los acentos en las palabras Inversión Pública y autorización</t>
-  </si>
-  <si>
-    <t>SRPU-174 /  SRPU-175 / SRPU-176 / SRPU-177 / SRPU-194  / SRPU-195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumple con la funcion del botón "Agregar" haciendo el despliegue en los dos submenús (Detalle botón Agregar) Ajustar la tabla ya que aparecen la tabla desalineada / Justificar botones agregar  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SRPU-178 / SRPU-197 / SRPU-198 </t>
-  </si>
-  <si>
-    <t>SRPU-199</t>
-  </si>
-  <si>
-    <t>File en ingles / Definir  letras mayúsculas y minúsculas en los botones
-Click / Clic 
-Sugerencia Archivos Considero Tener algún permiso para cargar los pdf ya que sube cualquier
-archivo sin importar que los nombres hagan match con el documento
-solicitado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agrega Datos  / "Número de Pago" no se le puede agregar el número 1 </t>
-  </si>
-  <si>
-    <t>SRPU-179 SRPU-200</t>
-  </si>
-  <si>
-    <t>SRPU-201</t>
-  </si>
-  <si>
     <t>Matriz de Pruebas Sistema de Gestión de Crédito de Municipios</t>
   </si>
   <si>
@@ -567,6 +443,222 @@
   </si>
   <si>
     <t>Menú Lateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encabezado Cancelar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encabezado Guardar y cerrar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardar y Cerrar Registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encabezado Guardar y continuar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardar y Continuar  Registro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condiciones Financieras / Agregar </t>
+  </si>
+  <si>
+    <t>Condicion Financiera Cancelar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condicion Financiera Guardar y Cerrar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Condicion Financiera Guardar y Continuar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación Carga de Documentos Obligatorios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación Carga de Documentos No Obligatorios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación / Comentarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar Comentarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación Guardar  y Continuar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación Guardar  Cerrar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentación Cancelar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumen/ Cometarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumen Guardar y Cerrar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumen/Guardar y Contunar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resumen / Cancelar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firma Documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">correcto despliegue y visualización de la pagina principal Firma Electronica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatus  Por Firmar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firma Electronica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datos del Firmante </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga de Certificado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargar el certificado Correctamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carga de Clave Privada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargar la clave privada Correctamente </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuar </t>
+  </si>
+  <si>
+    <t>Continuar con el paso 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar  Referencia y Asunto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agregar Referencia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmar Documennto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descargar Documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmar nuevo Documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firmar nuevo documento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver Documentos Firmados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizar Documentos Firmados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatus  En Revisión </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio de Estatus a Revisión </t>
+  </si>
+  <si>
+    <t>Acciones / Ver solicitud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ver Solicitud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualizar Comentarios y Crear Nuevo comentario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmar Revisión </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guardar Comentarios </t>
+  </si>
+  <si>
+    <t>Guardar Comentarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir Comentarios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatus de Revisión a Validación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio de Estatus a Revisión a Validación </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devolver para Revisión </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmar Validación </t>
+  </si>
+  <si>
+    <t>Confirmar Validación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatus de Validación a Autorización </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio de Estatus de Validación a Autorización </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autorizador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmar Autorización </t>
+  </si>
+  <si>
+    <t>Confirmar Autorización</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatus de Autorización a Autorizado por Firmar </t>
+  </si>
+  <si>
+    <t>Estatus de Autorización a Autorizado por Firmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acciones / Firmar Documentos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceso Firma Electrónica </t>
+  </si>
+  <si>
+    <t>Firma Electrónica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatus de  Autorizado por Firmar a Actualización </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estatus a Actualización </t>
   </si>
 </sst>
 </file>
@@ -647,7 +739,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,7 +760,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,7 +995,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -988,9 +1092,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="40% - Énfasis2" xfId="2" builtinId="35"/>
@@ -12317,7 +12421,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12340,7 +12444,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -12374,7 +12478,7 @@
     </row>
     <row r="3" spans="1:14" ht="13.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="30"/>
       <c r="C3" s="30"/>
@@ -12415,7 +12519,7 @@
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
       <c r="D5" s="35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" s="36"/>
       <c r="F5" s="37"/>
@@ -12477,33 +12581,33 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="J7" s="21"/>
       <c r="M7" s="22"/>
       <c r="N7" s="1">
-        <v>45237</v>
+        <v>41223</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
@@ -12511,30 +12615,28 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>117</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="M8" s="22"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="33" x14ac:dyDescent="0.3">
@@ -12542,28 +12644,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="1"/>
@@ -12573,999 +12675,1384 @@
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M10" s="7"/>
-      <c r="N10" s="1">
-        <v>45071</v>
-      </c>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M11" s="7"/>
-      <c r="N11" s="1">
-        <v>45071</v>
-      </c>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="M12" s="7"/>
-      <c r="N12" s="1">
-        <v>45071</v>
-      </c>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N13" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="I14" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="N14" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="198" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="N15" s="1">
-        <v>45071</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="N16" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="N17" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="N18" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="165" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="H19" s="20"/>
       <c r="I19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="L19" t="s">
-        <v>134</v>
-      </c>
-      <c r="M19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N19" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="115.5" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>122</v>
+        <v>67</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="L20" t="s">
-        <v>134</v>
-      </c>
-      <c r="M20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="N20" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N22" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="M23" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N23" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="M24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="N24" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
         <v>44</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="M25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="N25" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>126</v>
+      <c r="F26" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="M26" s="7"/>
-      <c r="N26" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="49.5" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" t="s">
         <v>44</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M27" s="7"/>
-      <c r="N27" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M28" s="7"/>
-      <c r="N28" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>102</v>
+      <c r="F29" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M29" s="7"/>
-      <c r="N29" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>29</v>
+      <c r="F30" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M30" s="7"/>
-      <c r="N30" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D31" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N31" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>128</v>
+      <c r="F32" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M32" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N32" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>29</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>31</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>32</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>33</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>34</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>36</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>37</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>38</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>39</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>41</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>42</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>43</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>44</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A51">
         <v>45</v>
       </c>
-      <c r="E33" t="s">
+      <c r="B51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="N33" s="1">
-        <v>45071</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C34" s="3"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C35" s="3"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C36" s="3"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B37"/>
-      <c r="F37"/>
-      <c r="H37"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B38"/>
-      <c r="F38"/>
-      <c r="H38"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B39"/>
-      <c r="F39"/>
-      <c r="H39"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B40"/>
-      <c r="F40"/>
-      <c r="H40"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B41"/>
-      <c r="F41"/>
-      <c r="H41"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B42"/>
-      <c r="F42"/>
-      <c r="H42"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B43"/>
-      <c r="F43"/>
-      <c r="H43"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B44"/>
-      <c r="F44"/>
-      <c r="H44"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B45"/>
-      <c r="F45"/>
-      <c r="H45"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B46"/>
-      <c r="F46"/>
-      <c r="H46"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B47"/>
-      <c r="F47"/>
-      <c r="H47"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B48"/>
-      <c r="F48"/>
-      <c r="H48"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49"/>
-      <c r="F49"/>
-      <c r="H49"/>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50"/>
-      <c r="F50"/>
-      <c r="H50"/>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51"/>
-      <c r="F51"/>
-      <c r="H51"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52"/>
-      <c r="F52"/>
-      <c r="H52"/>
-    </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H53"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H54"/>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N58" s="1"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N65" s="1"/>
-    </row>
-    <row r="66" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N66" s="1"/>
-    </row>
-    <row r="67" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N67" s="1"/>
-    </row>
-    <row r="68" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N68" s="1"/>
-    </row>
-    <row r="69" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N69" s="1"/>
-    </row>
-    <row r="70" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N70" s="1"/>
-    </row>
-    <row r="71" spans="14:14" x14ac:dyDescent="0.3">
-      <c r="N71" s="1"/>
-    </row>
-    <row r="72" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="F51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>46</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>47</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>48</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>49</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>50</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>51</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" t="s">
+        <v>160</v>
+      </c>
+      <c r="H57"/>
+      <c r="I57" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>52</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" t="s">
+        <v>161</v>
+      </c>
+      <c r="H58"/>
+      <c r="I58" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>53</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59"/>
+      <c r="I59" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>54</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" t="s">
+        <v>164</v>
+      </c>
+      <c r="H60"/>
+      <c r="I60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>55</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F61" t="s">
+        <v>167</v>
+      </c>
+      <c r="H61"/>
+      <c r="I61" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>56</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F62" t="s">
+        <v>161</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>57</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F63" t="s">
+        <v>168</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>58</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="F64" t="s">
+        <v>170</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>59</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" t="s">
+        <v>167</v>
+      </c>
+      <c r="H65"/>
+      <c r="I65" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>60</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F66" t="s">
+        <v>161</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>61</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F67" t="s">
+        <v>173</v>
+      </c>
+      <c r="H67"/>
+      <c r="I67" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:14" ht="33" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>62</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F68" t="s">
+        <v>175</v>
+      </c>
+      <c r="H68"/>
+      <c r="I68" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>63</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F69" t="s">
+        <v>177</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>64</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F70" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70"/>
+      <c r="I70" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>65</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="42" t="s">
+        <v>172</v>
+      </c>
+      <c r="F71" t="s">
+        <v>180</v>
+      </c>
+      <c r="H71"/>
+      <c r="I71" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N73" s="1"/>
     </row>
-    <row r="74" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N77" s="1"/>
     </row>
-    <row r="78" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N79" s="1"/>
     </row>
-    <row r="80" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N80" s="1"/>
     </row>
     <row r="81" spans="14:14" x14ac:dyDescent="0.3">
@@ -14440,43 +14927,45 @@
     <mergeCell ref="G5:N5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="M14" r:id="rId1" display="https://srpu.atlassian.net/browse/SRPU-169"/>
-    <hyperlink ref="M15" r:id="rId2" display="https://srpu.atlassian.net/browse/SRPU-169"/>
-    <hyperlink ref="M17" r:id="rId3" display="https://srpu.atlassian.net/browse/SRPU-169"/>
-    <hyperlink ref="M16" r:id="rId4" display="https://srpu.atlassian.net/browse/SRPU-169"/>
-    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$4</xm:f>
           </x14:formula1>
-          <xm:sqref>K55:K360 K35:K48</xm:sqref>
+          <xm:sqref>K72:K360</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$4</xm:f>
           </x14:formula1>
-          <xm:sqref>G53:G360 G7:G36</xm:sqref>
+          <xm:sqref>G7:G13 G72:G360</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$D$2:$D$15</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K34</xm:sqref>
+          <xm:sqref>K7:K13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Datos!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>L7:L380</xm:sqref>
+          <xm:sqref>L7:L13 L72:L380</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'J:\github\All-documents\SGCM\13 MATRIZ DE PRUEBAS\[Matriz de Pruebas Crédito Simple Corto Plazo  (Usuario Verificador, Revisor, Validador y Autorizador).xlsx]Datos'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>G14:G71</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -14556,7 +15045,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="B25" s="12">
         <v>4</v>
@@ -14564,7 +15053,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="B26" s="16">
         <v>5</v>
@@ -14591,16 +15080,16 @@
         <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C48" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D48" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="E48" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="F48" t="s">
         <v>20</v>
@@ -14608,7 +15097,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B49" s="17"/>
       <c r="C49" s="17">
@@ -14680,7 +15169,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -14691,7 +15180,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -14702,7 +15191,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -14710,60 +15199,60 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/SGCM/13 MATRIZ DE PRUEBAS/Matiz Credito Simple - Perfil Verificador.xlsx
+++ b/SGCM/13 MATRIZ DE PRUEBAS/Matiz Credito Simple - Perfil Verificador.xlsx
@@ -16,12 +16,9 @@
     <sheet name="GRAFICOS" sheetId="7" r:id="rId2"/>
     <sheet name="Datos" sheetId="5" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -151,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="203">
   <si>
     <t xml:space="preserve">Tester: Iris Lechuga </t>
   </si>
@@ -291,9 +288,6 @@
     <t xml:space="preserve">Notificaciones </t>
   </si>
   <si>
-    <t xml:space="preserve">Muestra Mensaje de Notificación </t>
-  </si>
-  <si>
     <t xml:space="preserve">Inicio </t>
   </si>
   <si>
@@ -757,6 +751,12 @@
   </si>
   <si>
     <t>https://srpu.atlassian.net/browse/SGCM-909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Muestra Mensaje de Notificación en otros usuarios revisor, validador y autorizador </t>
+  </si>
+  <si>
+    <t>https://srpu.atlassian.net/browse/SGCM-1121</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1323,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2210,7 +2209,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:solidFill>
@@ -2342,7 +2340,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2731,7 +2728,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2852,7 +2848,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3726,7 +3721,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5797,23 +5791,6 @@
 </c:userShapes>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="SGCM"/>
-      <sheetName val="GRAFICOS"/>
-      <sheetName val="Datos"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Iris Lechuga" refreshedDate="45243.711282175929" createdVersion="5" refreshedVersion="6" minRefreshableVersion="3" recordCount="354">
   <cacheSource type="worksheet">
@@ -11567,7 +11544,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -11673,7 +11650,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="A47:B49" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -11893,7 +11870,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="24">
   <location ref="A24:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField dataField="1" showAll="0"/>
@@ -12238,9 +12215,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N359"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12263,7 +12240,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -12400,38 +12377,40 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="D7" t="s">
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7" s="21"/>
+        <v>92</v>
+      </c>
+      <c r="J7" s="21">
+        <v>126</v>
+      </c>
       <c r="K7" t="s">
         <v>29</v>
       </c>
       <c r="L7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N7" s="1">
         <v>41223</v>
@@ -12442,26 +12421,26 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" t="s">
         <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G8" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M8" s="22"/>
       <c r="N8" s="1"/>
@@ -12471,28 +12450,28 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="M9" s="22"/>
       <c r="N9" s="1"/>
@@ -12511,22 +12490,35 @@
         <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>46</v>
+        <v>201</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="J10" s="21">
+        <v>127</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="N10" s="1">
+        <v>45244</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -12536,25 +12528,25 @@
         <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D11" t="s">
         <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
         <v>25</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7"/>
       <c r="N11" s="1"/>
@@ -12564,28 +12556,28 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="1"/>
@@ -12598,25 +12590,25 @@
         <v>42</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
         <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="N13" s="1"/>
     </row>
@@ -12625,28 +12617,28 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
         <v>25</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="3"/>
     </row>
@@ -12655,28 +12647,28 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
         <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J15" s="3"/>
     </row>
@@ -12685,28 +12677,28 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" t="s">
         <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" s="3"/>
     </row>
@@ -12715,28 +12707,28 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J17" s="3"/>
     </row>
@@ -12745,28 +12737,28 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" t="s">
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" s="3"/>
     </row>
@@ -12775,28 +12767,28 @@
         <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J19" s="3"/>
     </row>
@@ -12805,28 +12797,28 @@
         <v>14</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
         <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J20" s="3"/>
     </row>
@@ -12835,28 +12827,28 @@
         <v>15</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
         <v>43</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J21" s="3"/>
     </row>
@@ -12865,28 +12857,28 @@
         <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" t="s">
         <v>25</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J22" s="3"/>
     </row>
@@ -12895,28 +12887,28 @@
         <v>17</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J23" s="3"/>
     </row>
@@ -12925,28 +12917,28 @@
         <v>18</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" t="s">
         <v>25</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J24" s="3"/>
     </row>
@@ -12955,28 +12947,28 @@
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
         <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J25" s="3"/>
     </row>
@@ -12985,28 +12977,28 @@
         <v>20</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
         <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J26" s="3"/>
     </row>
@@ -13015,28 +13007,28 @@
         <v>21</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
       </c>
       <c r="E27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
         <v>25</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -13045,28 +13037,28 @@
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
         <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
         <v>25</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J28" s="3"/>
     </row>
@@ -13075,28 +13067,28 @@
         <v>23</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29" t="s">
         <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G29" t="s">
         <v>25</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J29" s="3"/>
     </row>
@@ -13105,28 +13097,28 @@
         <v>24</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
         <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
         <v>25</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J30" s="3"/>
     </row>
@@ -13135,28 +13127,28 @@
         <v>25</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" t="s">
         <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
         <v>25</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J31" s="3"/>
     </row>
@@ -13165,28 +13157,28 @@
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" t="s">
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G32" t="s">
         <v>25</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J32" s="3"/>
     </row>
@@ -13195,28 +13187,28 @@
         <v>27</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" t="s">
         <v>43</v>
       </c>
       <c r="E33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G33" t="s">
         <v>25</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J33" s="3"/>
     </row>
@@ -13225,28 +13217,28 @@
         <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
         <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G34" t="s">
         <v>25</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J34" s="3"/>
     </row>
@@ -13255,28 +13247,28 @@
         <v>29</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
         <v>43</v>
       </c>
       <c r="E35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
         <v>25</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J35" s="3"/>
     </row>
@@ -13285,25 +13277,25 @@
         <v>30</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D36" t="s">
         <v>43</v>
       </c>
       <c r="E36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G36" t="s">
         <v>25</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J36" s="3"/>
     </row>
@@ -13312,25 +13304,25 @@
         <v>31</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
         <v>25</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J37" s="3"/>
     </row>
@@ -13339,28 +13331,28 @@
         <v>32</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38" t="s">
         <v>43</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s">
         <v>25</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J38" s="3"/>
     </row>
@@ -13369,28 +13361,28 @@
         <v>33</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39" t="s">
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s">
         <v>25</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J39" s="3"/>
     </row>
@@ -13399,28 +13391,28 @@
         <v>34</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s">
         <v>25</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J40" s="3"/>
     </row>
@@ -13429,28 +13421,28 @@
         <v>35</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s">
         <v>25</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J41" s="3"/>
     </row>
@@ -13459,28 +13451,28 @@
         <v>36</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D42" t="s">
         <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G42" t="s">
         <v>25</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J42" s="3"/>
     </row>
@@ -13489,28 +13481,28 @@
         <v>37</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D43" t="s">
         <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
         <v>25</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J43" s="3"/>
     </row>
@@ -13519,28 +13511,28 @@
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G44" t="s">
         <v>25</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J44" s="3"/>
     </row>
@@ -13549,28 +13541,28 @@
         <v>39</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D45" t="s">
         <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
         <v>25</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45" s="3"/>
     </row>
@@ -13579,28 +13571,28 @@
         <v>40</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="D46" t="s">
         <v>43</v>
       </c>
       <c r="E46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G46" t="s">
         <v>25</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J46" s="3"/>
     </row>
@@ -13609,28 +13601,28 @@
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="D47" t="s">
         <v>43</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G47" t="s">
         <v>25</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J47" s="3"/>
     </row>
@@ -13639,28 +13631,28 @@
         <v>42</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="D48" t="s">
         <v>43</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G48" t="s">
         <v>25</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J48" s="3"/>
     </row>
@@ -13669,28 +13661,28 @@
         <v>43</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
         <v>43</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G49" t="s">
         <v>25</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J49" s="3"/>
     </row>
@@ -13699,28 +13691,28 @@
         <v>44</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
         <v>43</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G50" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J50" s="3"/>
     </row>
@@ -13729,28 +13721,28 @@
         <v>45</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
         <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G51" t="s">
         <v>25</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J51" s="3"/>
     </row>
@@ -13759,25 +13751,25 @@
         <v>46</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
         <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G52" t="s">
         <v>16</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J52" s="3"/>
     </row>
@@ -13786,25 +13778,25 @@
         <v>47</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D53" t="s">
         <v>43</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G53" t="s">
         <v>16</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J53" s="3"/>
     </row>
@@ -13813,28 +13805,28 @@
         <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D54" t="s">
         <v>43</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G54" t="s">
         <v>25</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J54" s="3"/>
     </row>
@@ -13843,28 +13835,28 @@
         <v>49</v>
       </c>
       <c r="B55" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D55" t="s">
         <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G55" t="s">
         <v>25</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J55" s="3"/>
     </row>
@@ -13873,25 +13865,25 @@
         <v>50</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D56" t="s">
         <v>43</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G56" t="s">
         <v>25</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J56" s="3"/>
     </row>
@@ -13903,22 +13895,22 @@
         <v>42</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" t="s">
         <v>156</v>
-      </c>
-      <c r="F57" t="s">
-        <v>157</v>
       </c>
       <c r="G57" t="s">
         <v>25</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J57" s="3"/>
     </row>
@@ -13930,22 +13922,22 @@
         <v>42</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G58" t="s">
         <v>25</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J58" s="3"/>
     </row>
@@ -13957,22 +13949,22 @@
         <v>42</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G59" t="s">
         <v>25</v>
       </c>
       <c r="H59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J59" s="3"/>
     </row>
@@ -13984,22 +13976,22 @@
         <v>42</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F60" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G60" t="s">
         <v>25</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J60" s="3"/>
     </row>
@@ -14011,22 +14003,22 @@
         <v>42</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" t="s">
         <v>163</v>
-      </c>
-      <c r="F61" t="s">
-        <v>164</v>
       </c>
       <c r="G61" t="s">
         <v>25</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J61" s="3"/>
     </row>
@@ -14038,22 +14030,22 @@
         <v>42</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D62" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G62" t="s">
         <v>25</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J62" s="3"/>
     </row>
@@ -14065,22 +14057,22 @@
         <v>42</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G63" t="s">
         <v>25</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J63" s="3"/>
     </row>
@@ -14092,22 +14084,22 @@
         <v>42</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D64" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F64" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G64" t="s">
         <v>25</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J64" s="3"/>
     </row>
@@ -14119,22 +14111,22 @@
         <v>42</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G65" t="s">
         <v>25</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J65" s="3"/>
     </row>
@@ -14146,22 +14138,22 @@
         <v>42</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G66" t="s">
         <v>25</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J66" s="3"/>
     </row>
@@ -14173,22 +14165,22 @@
         <v>42</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F67" t="s">
         <v>169</v>
-      </c>
-      <c r="F67" t="s">
-        <v>170</v>
       </c>
       <c r="G67" t="s">
         <v>25</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J67" s="3"/>
     </row>
@@ -14200,22 +14192,22 @@
         <v>42</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D68" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G68" t="s">
         <v>25</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J68" s="3"/>
     </row>
@@ -14227,22 +14219,22 @@
         <v>42</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G69" t="s">
         <v>25</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J69" s="3"/>
     </row>
@@ -14254,22 +14246,22 @@
         <v>42</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G70" t="s">
         <v>25</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J70" s="3"/>
     </row>
@@ -14281,22 +14273,22 @@
         <v>42</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G71" t="s">
         <v>25</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J71" s="3"/>
     </row>
@@ -15201,12 +15193,13 @@
   <hyperlinks>
     <hyperlink ref="C7" r:id="rId1"/>
     <hyperlink ref="M7" r:id="rId2"/>
+    <hyperlink ref="M10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -15305,7 +15298,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="12">
         <v>1</v>
@@ -15379,7 +15372,7 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -15390,7 +15383,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -15401,7 +15394,7 @@
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -15409,7 +15402,7 @@
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
